--- a/utils/cleaners/Lista de chequeo líder de área colegios Coding For Kids (Responses).xlsx
+++ b/utils/cleaners/Lista de chequeo líder de área colegios Coding For Kids (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9808" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="410">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1169,6 +1169,101 @@
   </si>
   <si>
     <t xml:space="preserve">Se realizan adaptaciones del plan de estudio con el piar para trabajar con estudiantes con necesidades especiales. </t>
+  </si>
+  <si>
+    <t>La asignatura de tecnología e informática es accesible para todas las personas en la IE.</t>
+  </si>
+  <si>
+    <t>En el plan de área se proponen estrategias diversas teniendo en cuenta las distinciones en los ritmos y estilos de aprendizaje pero no se especifican en la tipología de población.</t>
+  </si>
+  <si>
+    <t>El seguimiento a las adecuaciones o implementación de plan de estudios se hace por parte del consejo académico</t>
+  </si>
+  <si>
+    <t>La IE se apoya con psicorientación para atender a los estudiantes con discapacidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La docente de tecnología de la mañana le da participación a las niñas en su clase, por ejemplo crea grupos y solicita que la monitora sea una niña. </t>
+  </si>
+  <si>
+    <t>El nivel de participación de directivas y consejo directivo en el plan de estudios es bajo, la docente de tecnología de la jornada de la mañana tiene autonomía para establecer el plan. 
+Los espacios de formación de los docentes depende cada docente, no de la IE.
+Algunos docentes de otras áreas  se interesan por la tecnología pero no la integran a sus clases.</t>
+  </si>
+  <si>
+    <t>Quien define lo que se enseña es el MEN a través de la guía 30. La programación se da con estudiantes de grado 11 y trabajan en celulares con Pydroid3. Ofimática no se está dando.</t>
+  </si>
+  <si>
+    <t>En la IE hay una persona encargada de estudiantes con necesidades especiales y se aplican los PIAR. Los planes de estudio tienen espacios de flexibilización para abordar adaptaciones a estudiantes con necesidades especiales.</t>
+  </si>
+  <si>
+    <t>El plan de estudio es modificado en cada periodo academico y se incluye unidades tematicas deacuerdo a las necesidades de los estudiantes y competencias a desarrollar, en este año se tiene planeado realizar la modificacion e incluir pensamiento computacional para el 3 periodo.</t>
+  </si>
+  <si>
+    <t>La institucion cuenta con una Psicopedagoga que informa a docentes las necesidades educativas especiales, y realiza un seguimiento de la implementacion de estreategias educativas.</t>
+  </si>
+  <si>
+    <t>La institucion realiza formacion academica solo a niñas.</t>
+  </si>
+  <si>
+    <t>El docente lider de area de tecnologia e informatica presenta una estructura del plan de area encaminada a actividades relacionadas con el pensamiento computacional en la IE</t>
+  </si>
+  <si>
+    <t>El docente manifiesta que en este componente falta , pero se esta trabajando para articularlo al area</t>
+  </si>
+  <si>
+    <t>La IE Ciudadela ha empezado a incorporar habilidades del pensamiento computacional a través del docente Mario Parra</t>
+  </si>
+  <si>
+    <t>El plan de estudios es igual para todos los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La IE Max Seidel tiene su mayor enfoque en las Ciencias del Mar </t>
+  </si>
+  <si>
+    <t>Para los estudiantes con NEE se implementa apoyo con la Sec Educacion en interprete de señas.  Esta Institución su mayor población es afrodescendiente y Victimas</t>
+  </si>
+  <si>
+    <t>La IE enfoca su plan de estudios a Ofimática</t>
+  </si>
+  <si>
+    <t>La IE tiene población afrodescendiente y victimas, su población estudiantil es solo NIÑAS</t>
+  </si>
+  <si>
+    <t>No hace diferencias de Genero porque la IE tiene población de solo niñas</t>
+  </si>
+  <si>
+    <t>La IE se enfoca en Ofimática en su plan de estudios</t>
+  </si>
+  <si>
+    <t>Para los estudiantes con NEE se aborda la misma pedagogía, en el momento no hay estudiantes con NEE en la IE</t>
+  </si>
+  <si>
+    <t>la IE enfoca su plan de estudios a Ofimática en el área de Tecnología</t>
+  </si>
+  <si>
+    <t>En el plan de estudios no se considera estudiantes con NEE debido a que es una IE Rural y estos estudiantes son remitidos a Tumaco para que puedan atender sus necesidades.  Los identifica a los estudiantes con NEE y los remite a las sedes Urbanas para que tengan la atención profesional correspondiente porque en la zona rural no hay profesionales para esta población.</t>
+  </si>
+  <si>
+    <t>La población estudiantil son afrodescendientes y victimas de conflicto armado. Es una zona rural que tiene vigente conflictos de diferentes actores que se pueden desencadenar en cualquier momento, según los docentes hay incertidumbre diaria en la zona porque en cualquier momento puede desatarse eventos bélicos.</t>
+  </si>
+  <si>
+    <t>La IE su mayor población estudiantil está acentuada con población indígena AWA, afrodescendiente y población victima de conflicto armado.</t>
+  </si>
+  <si>
+    <t>Sobre todo ofimática, alfabetización y con algunos grados se ha iniciado pensamiento computacional, con mayor relevancia la ofimática, se empieza a evidenciar desde grados 6 a 11, iniciando con aspectos básicos</t>
+  </si>
+  <si>
+    <t>Existe en el área de psicorientacion, un protocolo articulado con las actividades de aula y especificamente el area, con un equipo de inclusion, asi mismo se desarrolla un proyecto llamado equidad y genero que trata diversos temas y desarrolla diferentes actividades sobre estos temas de interes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada año, el equipo de maestros siempre esta en constante actualización del plan de area, de acuerdo a lineamientos de los ministerios y temas de interés en tecnología y habilidades actuales del siglo XXI. </t>
+  </si>
+  <si>
+    <t>El plan de área esta basado en la cartilla 30 del MEN y no existen los DBA para esta área</t>
+  </si>
+  <si>
+    <t>Hay un programa de alcaldía de inclusión pero no es efectiva para apoyar a los estudiantes con necesidades especiales</t>
   </si>
 </sst>
 </file>
@@ -32632,6 +32727,3530 @@
         <v>47</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>44697.48710571759</v>
+      </c>
+      <c r="B223" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ223" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV223" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>44697.49463543981</v>
+      </c>
+      <c r="B224" s="3">
+        <v>247.0</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK224" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT224" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU224" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV224" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>44697.55859043982</v>
+      </c>
+      <c r="B225" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z225" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS225" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU225" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV225" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>44697.622209548616</v>
+      </c>
+      <c r="B226" s="3">
+        <v>233.0</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X226" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR226" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU226" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV226" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>44698.395665358796</v>
+      </c>
+      <c r="B227" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU227" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW227" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>44698.44787960648</v>
+      </c>
+      <c r="B228" s="3">
+        <v>135.0</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS228" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU228" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV228" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>44698.498295937505</v>
+      </c>
+      <c r="B229" s="3">
+        <v>246.0</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z229" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK229" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV229" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW229" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>44698.5001175463</v>
+      </c>
+      <c r="B230" s="3">
+        <v>85.0</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z230" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS230" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU230" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV230" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>44698.649771041666</v>
+      </c>
+      <c r="B231" s="3">
+        <v>212.0</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU231" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV231" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>44698.66189834491</v>
+      </c>
+      <c r="B232" s="3">
+        <v>215.0</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT232" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU232" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV232" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>44698.693497546294</v>
+      </c>
+      <c r="B233" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU233" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV233" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>44698.69428487269</v>
+      </c>
+      <c r="B234" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z234" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK234" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT234" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV234" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>44698.69700326389</v>
+      </c>
+      <c r="B235" s="3">
+        <v>142.0</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT235" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV235" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>44698.69978724537</v>
+      </c>
+      <c r="B236" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR236" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU236" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV236" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>44698.7021337037</v>
+      </c>
+      <c r="B237" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV237" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>44698.704475300925</v>
+      </c>
+      <c r="B238" s="3">
+        <v>146.0</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT238" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU238" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV238" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>44698.78895686343</v>
+      </c>
+      <c r="B239" s="3">
+        <v>209.0</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z239" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT239" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU239" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV239" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>44699.37340002315</v>
+      </c>
+      <c r="B240" s="3">
+        <v>197.0</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z240" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM240" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV240" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>44699.403388148145</v>
+      </c>
+      <c r="B241" s="3">
+        <v>198.0</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z241" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM241" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW241" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>44699.41413438658</v>
+      </c>
+      <c r="B242" s="3">
+        <v>199.0</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z242" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM242" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU242" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV242" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>44699.44813599537</v>
+      </c>
+      <c r="B243" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z243" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK243" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM243" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU243" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV243" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>44699.46196719907</v>
+      </c>
+      <c r="B244" s="3">
+        <v>201.0</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z244" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM244" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV244" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>44699.46941521991</v>
+      </c>
+      <c r="B245" s="3">
+        <v>202.0</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z245" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK245" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV245" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW245" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>44699.89041263889</v>
+      </c>
+      <c r="B246" s="3">
+        <v>208.0</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z246" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL246" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV246" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW246" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>44700.362553287036</v>
+      </c>
+      <c r="B247" s="3">
+        <v>137.0</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z247" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT247" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV247" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
